--- a/APF/SD008/SD008_功能測試驗收規格書_APF0101.xlsx
+++ b/APF/SD008/SD008_功能測試驗收規格書_APF0101.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="341">
   <si>
     <t>序號</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -697,11 +697,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.按下確認按鈕。
-2.列出所有該角色下所屬的帳號於下方APF0101MM1_Grid。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>輸入資料:
 角色代號：(空白)
 角色名稱：(空白)
@@ -1473,6 +1468,86 @@
   </si>
   <si>
     <t>開啟APF0203MM1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>1.按下確認按鈕。
+2.列出所有角色於下方APF0101MM1_Grid。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合預期結果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合預期結果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合預期結果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>無設定預設角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入不正確時，應保留原輸入的值，而不是replace為空白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前載入時顯示No items to display，應顯示目前無資料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒有focus在角色代號欄位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名稱：王大明李大同abcdefghijklmnop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>於角色名稱欄位輸入已存在的角色名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色說明：臣亮言：先帝創業未半，而中道崩殂。今天下三分，益州疲弊，此誠危急存亡之秋也。然侍衛之臣，不懈於內；忠志之士，忘身於外者，蓋追先帝之殊遇，欲報之於陛下也。誠宜開張聖聽，以光先帝遺德，恢弘志士之</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色說明欄位應可輸入特殊符號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒有focus在角色代號欄位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒有導頁至APF0102MM1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-2.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次檢核有誤時，跳出提示訊息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次檢核沒有跳出錯誤提示訊息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.於角色代號Textbox輸入特殊符號。
+2.第一次按下確認按鈕後，顯示提示訊息(APF訊息提示06001)。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1681,7 +1756,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1763,6 +1838,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2026,7 +2107,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2270,6 +2351,39 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="15" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="15" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="15" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="15" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2284,6 +2398,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2597,8 +2720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2611,12 +2734,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="60" t="s">
@@ -2633,7 +2756,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="90" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="64" t="s">
@@ -2645,7 +2768,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="79"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="64" t="s">
         <v>110</v>
       </c>
@@ -2655,7 +2778,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="79"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="64" t="s">
         <v>108</v>
       </c>
@@ -2665,37 +2788,37 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="79"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="64"/>
       <c r="C6" s="64"/>
       <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="79"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="64"/>
       <c r="C7" s="64"/>
       <c r="D7" s="65"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="79"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
       <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="79"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
       <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="79"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
       <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="79"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="64"/>
       <c r="C11" s="64"/>
       <c r="D11" s="65"/>
@@ -3125,17 +3248,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
       <c r="E1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
       <c r="H1" s="27" t="s">
         <v>73</v>
       </c>
@@ -3180,7 +3303,7 @@
     <row r="3" spans="1:14">
       <c r="A3" s="24">
         <f ca="1">SUM(C3:M3)</f>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>69</v>
@@ -3191,11 +3314,11 @@
       </c>
       <c r="D3" s="34">
         <f ca="1">IF(D$2="", "", COUNTIF(INDIRECT(D$2&amp;"!$a:$a"), "v"))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="34">
         <f t="shared" ref="E3:N3" ca="1" si="0">IF(E$2="", "", COUNTIF(INDIRECT(E$2&amp;"!$a:$a"), "v"))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -3219,22 +3342,22 @@
     <row r="4" spans="1:14">
       <c r="A4" s="24">
         <f ca="1">SUM(C4:M4)</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="34">
         <f ca="1">IF(C$2="", "", COUNTIF(INDIRECT(C$2&amp;"!$b:$b"), "&gt;""")-1)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D4" s="34">
         <f t="shared" ref="D4:N4" ca="1" si="1">IF(D$2="", "", COUNTIF(INDIRECT(D$2&amp;"!$b:$b"), "&gt;""")-1)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E4" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
@@ -3258,22 +3381,22 @@
     <row r="5" spans="1:14">
       <c r="A5" s="24">
         <f ca="1">SUM(C5:M5)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="34">
         <f ca="1">IF(C$2="", "", COUNTIF(INDIRECT(C$2&amp;"!$b:$b"), "ok"))</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:N5" ca="1" si="2">IF(D$2="", "", COUNTIF(INDIRECT(D$2&amp;"!$b:$b"), "ok"))</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E5" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -7636,11 +7759,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38:F38"/>
+      <selection pane="bottomRight" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7714,7 +7837,7 @@
       <c r="B4" s="32"/>
       <c r="C4" s="51"/>
       <c r="D4" s="56" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
@@ -7725,7 +7848,9 @@
       <c r="A5" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C5" s="48" t="s">
         <v>87</v>
       </c>
@@ -7733,7 +7858,7 @@
         <v>112</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>133</v>
@@ -7741,7 +7866,9 @@
       <c r="G5" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="50"/>
+      <c r="H5" s="50" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
       <c r="A6" s="32"/>
@@ -7793,7 +7920,9 @@
       <c r="A10" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C10" s="48" t="s">
         <v>89</v>
       </c>
@@ -7804,18 +7933,22 @@
         <v>119</v>
       </c>
       <c r="F10" s="75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G10" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="50"/>
+      <c r="H10" s="50" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="33" customFormat="1" ht="47.25">
       <c r="A11" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C11" s="48" t="s">
         <v>106</v>
       </c>
@@ -7826,12 +7959,14 @@
         <v>118</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G11" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="50"/>
+      <c r="H11" s="50" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
       <c r="A12" s="32"/>
@@ -7883,7 +8018,9 @@
       <c r="A16" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C16" s="48" t="s">
         <v>120</v>
       </c>
@@ -7891,485 +8028,573 @@
         <v>141</v>
       </c>
       <c r="E16" s="74" t="s">
+        <v>322</v>
+      </c>
+      <c r="F16" s="44" t="s">
         <v>142</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>143</v>
       </c>
       <c r="G16" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="50"/>
+      <c r="H16" s="50" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="17" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A17" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C17" s="48" t="s">
         <v>121</v>
       </c>
       <c r="D17" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="F17" s="75" t="s">
         <v>149</v>
-      </c>
-      <c r="F17" s="75" t="s">
-        <v>150</v>
       </c>
       <c r="G17" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="50"/>
+      <c r="H17" s="50" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="18" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A18" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C18" s="48" t="s">
         <v>122</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" s="75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G18" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="50"/>
+      <c r="H18" s="50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="19" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A19" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C19" s="48" t="s">
         <v>123</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G19" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="50"/>
+      <c r="H19" s="50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="20" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A20" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C20" s="48" t="s">
         <v>125</v>
       </c>
       <c r="D20" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="74" t="s">
-        <v>154</v>
-      </c>
       <c r="F20" s="75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G20" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="50"/>
+      <c r="H20" s="50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="21" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A21" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C21" s="48" t="s">
         <v>126</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E21" s="74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F21" s="75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G21" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="50"/>
+      <c r="H21" s="50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="22" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A22" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C22" s="48" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F22" s="75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G22" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H22" s="50"/>
-    </row>
-    <row r="23" spans="1:8" s="33" customFormat="1" ht="63">
-      <c r="A23" s="32" t="s">
+      <c r="H22" s="50" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="84" customFormat="1" ht="63">
+      <c r="A23" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="42" t="s">
+      <c r="B23" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="C23" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="F23" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="77" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="24" spans="1:8" s="33" customFormat="1" ht="63">
       <c r="A24" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C24" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E24" s="74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G24" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="50"/>
+      <c r="H24" s="50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="25" spans="1:8" s="33" customFormat="1" ht="63">
       <c r="A25" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C25" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D25" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="74" t="s">
-        <v>157</v>
-      </c>
       <c r="F25" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G25" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="50"/>
+      <c r="H25" s="50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="26" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A26" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="32"/>
+      <c r="B26" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C26" s="48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D26" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="74" t="s">
+      <c r="F26" s="75" t="s">
         <v>168</v>
-      </c>
-      <c r="F26" s="75" t="s">
-        <v>169</v>
       </c>
       <c r="G26" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H26" s="50"/>
+      <c r="H26" s="50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="27" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A27" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="32"/>
+      <c r="B27" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C27" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="E27" s="74" t="s">
-        <v>168</v>
-      </c>
       <c r="F27" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G27" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="50"/>
+      <c r="H27" s="50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="28" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A28" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="32"/>
+      <c r="B28" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C28" s="48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D28" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="E28" s="74" t="s">
-        <v>168</v>
-      </c>
       <c r="F28" s="75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G28" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H28" s="50"/>
+      <c r="H28" s="50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="29" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A29" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="32"/>
+      <c r="B29" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C29" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E29" s="74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F29" s="75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G29" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="50"/>
-    </row>
-    <row r="30" spans="1:8" s="33" customFormat="1" ht="78.75">
-      <c r="A30" s="32" t="s">
+      <c r="H29" s="50" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="84" customFormat="1" ht="78.75">
+      <c r="A30" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E30" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="F30" s="75" t="s">
-        <v>175</v>
-      </c>
-      <c r="G30" s="49" t="s">
+      <c r="B30" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="H30" s="50"/>
+      <c r="H30" s="77" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="31" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A31" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="32"/>
+      <c r="B31" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C31" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E31" s="74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F31" s="75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G31" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H31" s="50"/>
+      <c r="H31" s="50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="32" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A32" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="32"/>
+      <c r="B32" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C32" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E32" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F32" s="75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G32" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="50"/>
+      <c r="H32" s="50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="33" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A33" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="32"/>
+      <c r="B33" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C33" s="48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E33" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F33" s="75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G33" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H33" s="50"/>
+      <c r="H33" s="50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="34" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A34" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C34" s="48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E34" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F34" s="75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G34" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H34" s="50"/>
+      <c r="H34" s="50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="35" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A35" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C35" s="48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E35" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="F35" s="75" t="s">
         <v>195</v>
-      </c>
-      <c r="F35" s="75" t="s">
-        <v>196</v>
       </c>
       <c r="G35" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H35" s="50"/>
-    </row>
-    <row r="36" spans="1:8" s="33" customFormat="1" ht="78.75">
-      <c r="A36" s="32" t="s">
+      <c r="H35" s="50" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="84" customFormat="1" ht="78.75">
+      <c r="A36" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="E36" s="74" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="G36" s="49" t="s">
+      <c r="B36" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="C36" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="F36" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="H36" s="50"/>
+      <c r="H36" s="77" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="37" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A37" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="32"/>
+      <c r="B37" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C37" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E37" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F37" s="75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G37" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H37" s="50"/>
+      <c r="H37" s="50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="38" spans="1:8" s="33" customFormat="1" ht="63">
       <c r="A38" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C38" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D38" s="42" t="s">
         <v>128</v>
@@ -8381,15 +8606,19 @@
       <c r="G38" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="H38" s="50"/>
+      <c r="H38" s="50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="39" spans="1:8" s="33" customFormat="1" ht="63">
       <c r="A39" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="32"/>
+      <c r="B39" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C39" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D39" s="42" t="s">
         <v>131</v>
@@ -8403,7 +8632,9 @@
       <c r="G39" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="H39" s="50"/>
+      <c r="H39" s="50" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="40" spans="1:8" s="33" customFormat="1" ht="15.75">
       <c r="A40" s="32"/>
@@ -8465,7 +8696,9 @@
       <c r="A45" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="32"/>
+      <c r="B45" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C45" s="48" t="s">
         <v>138</v>
       </c>
@@ -8483,66 +8716,76 @@
       </c>
       <c r="H45" s="50"/>
     </row>
-    <row r="46" spans="1:8" s="33" customFormat="1" ht="78.75">
-      <c r="A46" s="32" t="s">
+    <row r="46" spans="1:8" s="84" customFormat="1" ht="78.75">
+      <c r="A46" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="48" t="s">
+      <c r="B46" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="C46" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="74" t="s">
+      <c r="D46" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="E46" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="E46" s="74" t="s">
+      <c r="F46" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="G46" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="H46" s="85" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="84" customFormat="1" ht="78.75">
+      <c r="A47" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="C47" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="F46" s="75" t="s">
+      <c r="E47" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="F47" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="G46" s="49" t="s">
+      <c r="G47" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="H46" s="50"/>
-    </row>
-    <row r="47" spans="1:8" s="33" customFormat="1" ht="78.75">
-      <c r="A47" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="E47" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="F47" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="G47" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="H47" s="50"/>
+      <c r="H47" s="85" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="48" spans="1:8" s="33" customFormat="1" ht="94.5">
       <c r="A48" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="32"/>
+      <c r="B48" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C48" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D48" s="74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E48" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F48" s="75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G48" s="49" t="s">
         <v>114</v>
@@ -8553,18 +8796,20 @@
       <c r="A49" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="32"/>
+      <c r="B49" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C49" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D49" s="74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E49" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="F49" s="75" t="s">
         <v>214</v>
-      </c>
-      <c r="F49" s="75" t="s">
-        <v>215</v>
       </c>
       <c r="G49" s="49" t="s">
         <v>105</v>
@@ -8575,18 +8820,20 @@
       <c r="A50" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="32"/>
+      <c r="B50" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C50" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D50" s="74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E50" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F50" s="75" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G50" s="49" t="s">
         <v>105</v>
@@ -8597,21 +8844,23 @@
       <c r="A51" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="32"/>
+      <c r="B51" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C51" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D51" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="E51" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="F51" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="E51" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="F51" s="75" t="s">
+      <c r="G51" s="75" t="s">
         <v>219</v>
-      </c>
-      <c r="G51" s="75" t="s">
-        <v>220</v>
       </c>
       <c r="H51" s="50"/>
     </row>
@@ -8619,21 +8868,23 @@
       <c r="A52" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="32"/>
+      <c r="B52" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C52" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D52" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="E52" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="E52" s="74" t="s">
+      <c r="F52" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="F52" s="75" t="s">
-        <v>223</v>
-      </c>
       <c r="G52" s="75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H52" s="50"/>
     </row>
@@ -8684,7 +8935,7 @@
       <c r="B57" s="32"/>
       <c r="C57" s="51"/>
       <c r="D57" s="54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E57" s="47"/>
       <c r="F57" s="47"/>
@@ -8696,52 +8947,58 @@
       <c r="B58" s="32"/>
       <c r="C58" s="51"/>
       <c r="D58" s="56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E58" s="40"/>
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="57"/>
     </row>
-    <row r="59" spans="1:8" ht="123.75" customHeight="1">
-      <c r="A59" s="32" t="s">
+    <row r="59" spans="1:8" s="84" customFormat="1" ht="123.75" customHeight="1">
+      <c r="A59" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="48" t="s">
+      <c r="B59" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="C59" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="E59" s="81" t="s">
         <v>243</v>
       </c>
-      <c r="D59" s="74" t="s">
-        <v>225</v>
-      </c>
-      <c r="E59" s="74" t="s">
-        <v>244</v>
-      </c>
-      <c r="F59" s="75"/>
-      <c r="G59" s="49" t="s">
+      <c r="F59" s="82"/>
+      <c r="G59" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="H59" s="76"/>
+      <c r="H59" s="85" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="104.25" customHeight="1">
       <c r="A60" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="32"/>
+      <c r="B60" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C60" s="48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D60" s="74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E60" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="F60" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="G60" s="75" t="s">
         <v>226</v>
-      </c>
-      <c r="F60" s="75" t="s">
-        <v>268</v>
-      </c>
-      <c r="G60" s="75" t="s">
-        <v>227</v>
       </c>
       <c r="H60" s="76"/>
     </row>
@@ -8749,19 +9006,21 @@
       <c r="A61" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="32"/>
+      <c r="B61" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C61" s="48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D61" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="E61" s="74" t="s">
         <v>229</v>
-      </c>
-      <c r="E61" s="74" t="s">
-        <v>230</v>
       </c>
       <c r="F61" s="75"/>
       <c r="G61" s="75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H61" s="76"/>
     </row>
@@ -8769,19 +9028,21 @@
       <c r="A62" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="32"/>
+      <c r="B62" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C62" s="48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D62" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="E62" s="74" t="s">
         <v>232</v>
-      </c>
-      <c r="E62" s="74" t="s">
-        <v>233</v>
       </c>
       <c r="F62" s="75"/>
       <c r="G62" s="75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H62" s="76"/>
     </row>
@@ -8789,19 +9050,21 @@
       <c r="A63" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="32"/>
+      <c r="B63" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C63" s="48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D63" s="74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E63" s="74" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F63" s="75"/>
       <c r="G63" s="75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H63" s="76"/>
     </row>
@@ -8809,21 +9072,23 @@
       <c r="A64" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="32"/>
+      <c r="B64" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C64" s="48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D64" s="74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E64" s="74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F64" s="75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G64" s="75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H64" s="76"/>
     </row>
@@ -8831,21 +9096,23 @@
       <c r="A65" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="32"/>
+      <c r="B65" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C65" s="48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D65" s="74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E65" s="74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F65" s="75" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G65" s="75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H65" s="76"/>
     </row>
@@ -8853,19 +9120,21 @@
       <c r="A66" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B66" s="32"/>
+      <c r="B66" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C66" s="48" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D66" s="74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E66" s="74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F66" s="75"/>
       <c r="G66" s="75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H66" s="76"/>
     </row>
@@ -8873,19 +9142,21 @@
       <c r="A67" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B67" s="32"/>
+      <c r="B67" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C67" s="48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D67" s="74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E67" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F67" s="75"/>
       <c r="G67" s="75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H67" s="76"/>
     </row>
@@ -8893,19 +9164,21 @@
       <c r="A68" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="32"/>
+      <c r="B68" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C68" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D68" s="74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E68" s="74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F68" s="75"/>
       <c r="G68" s="75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H68" s="76"/>
     </row>
@@ -8924,7 +9197,7 @@
       <c r="B70" s="32"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E70" s="39"/>
       <c r="F70" s="39"/>
@@ -8936,7 +9209,7 @@
       <c r="B71" s="32"/>
       <c r="C71" s="51"/>
       <c r="D71" s="54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E71" s="47"/>
       <c r="F71" s="47"/>
@@ -8948,7 +9221,7 @@
       <c r="B72" s="32"/>
       <c r="C72" s="51"/>
       <c r="D72" s="56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="41"/>
@@ -8959,15 +9232,17 @@
       <c r="A73" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B73" s="32"/>
+      <c r="B73" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C73" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="E73" s="74" t="s">
         <v>270</v>
-      </c>
-      <c r="D73" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="E73" s="74" t="s">
-        <v>271</v>
       </c>
       <c r="F73" s="75"/>
       <c r="G73" s="49" t="s">
@@ -8996,13 +9271,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9052,7 +9327,7 @@
       <c r="B2" s="32"/>
       <c r="C2" s="51"/>
       <c r="D2" s="52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
@@ -9076,51 +9351,57 @@
       <c r="B4" s="32"/>
       <c r="C4" s="51"/>
       <c r="D4" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="H4" s="57"/>
     </row>
-    <row r="5" spans="1:9" s="33" customFormat="1" ht="157.5">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:9" s="84" customFormat="1" ht="157.5">
+      <c r="A5" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="D5" s="42" t="s">
+      <c r="B5" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="G5" s="49" t="s">
+      <c r="E5" s="86" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="50"/>
+      <c r="H5" s="77" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="33" customFormat="1" ht="78.75">
       <c r="A6" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C6" s="48" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G6" s="49" t="s">
         <v>105</v>
@@ -9131,15 +9412,17 @@
       <c r="A7" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C7" s="48" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" s="49" t="s">
@@ -9151,15 +9434,17 @@
       <c r="A8" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C8" s="48" t="s">
         <v>101</v>
       </c>
       <c r="D8" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="43" t="s">
         <v>302</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>303</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" s="49" t="s">
@@ -9182,7 +9467,7 @@
       <c r="B10" s="32"/>
       <c r="C10" s="51"/>
       <c r="D10" s="52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
@@ -9194,7 +9479,7 @@
       <c r="B11" s="32"/>
       <c r="C11" s="51"/>
       <c r="D11" s="54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="47"/>
@@ -9206,7 +9491,7 @@
       <c r="B12" s="32"/>
       <c r="C12" s="51"/>
       <c r="D12" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="41"/>
@@ -9217,18 +9502,20 @@
       <c r="A13" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C13" s="48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D13" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="E13" s="74" t="s">
-        <v>200</v>
-      </c>
       <c r="F13" s="75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G13" s="49" t="s">
         <v>115</v>
@@ -9239,18 +9526,20 @@
       <c r="A14" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C14" s="48" t="s">
         <v>106</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F14" s="75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G14" s="49" t="s">
         <v>105</v>
@@ -9261,18 +9550,20 @@
       <c r="A15" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C15" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F15" s="75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G15" s="49" t="s">
         <v>105</v>
@@ -9283,18 +9574,20 @@
       <c r="A16" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C16" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D16" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" s="74" t="s">
         <v>283</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="F16" s="75" t="s">
         <v>284</v>
-      </c>
-      <c r="F16" s="75" t="s">
-        <v>285</v>
       </c>
       <c r="G16" s="49" t="s">
         <v>105</v>
@@ -9305,18 +9598,20 @@
       <c r="A17" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C17" s="48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="E17" s="74" t="s">
         <v>277</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="F17" s="75" t="s">
         <v>278</v>
-      </c>
-      <c r="F17" s="75" t="s">
-        <v>279</v>
       </c>
       <c r="G17" s="49" t="s">
         <v>105</v>
@@ -9327,18 +9622,20 @@
       <c r="A18" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C18" s="48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D18" s="74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E18" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="75" t="s">
         <v>214</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>215</v>
       </c>
       <c r="G18" s="49" t="s">
         <v>105</v>
@@ -9349,18 +9646,20 @@
       <c r="A19" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C19" s="48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E19" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F19" s="75" t="s">
-        <v>216</v>
+        <v>331</v>
       </c>
       <c r="G19" s="49" t="s">
         <v>105</v>
@@ -9371,18 +9670,20 @@
       <c r="A20" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C20" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D20" s="74" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="74" t="s">
         <v>286</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="F20" s="75" t="s">
         <v>287</v>
-      </c>
-      <c r="F20" s="75" t="s">
-        <v>288</v>
       </c>
       <c r="G20" s="49" t="s">
         <v>105</v>
@@ -9393,18 +9694,20 @@
       <c r="A21" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C21" s="48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D21" s="74" t="s">
+        <v>332</v>
+      </c>
+      <c r="E21" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="E21" s="74" t="s">
+      <c r="F21" s="75" t="s">
         <v>281</v>
-      </c>
-      <c r="F21" s="75" t="s">
-        <v>282</v>
       </c>
       <c r="G21" s="49" t="s">
         <v>105</v>
@@ -9415,40 +9718,46 @@
       <c r="A22" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C22" s="48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D22" s="74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F22" s="75" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G22" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H22" s="50"/>
+      <c r="H22" s="50" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="23" spans="1:8" s="33" customFormat="1" ht="204.75">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C23" s="48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D23" s="74" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E23" s="74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F23" s="75" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="G23" s="49" t="s">
         <v>105</v>
@@ -9459,18 +9768,20 @@
       <c r="A24" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C24" s="48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D24" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" s="75" t="s">
         <v>218</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="F24" s="75" t="s">
-        <v>219</v>
       </c>
       <c r="G24" s="49" t="s">
         <v>115</v>
@@ -9481,23 +9792,51 @@
       <c r="A25" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C25" s="48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D25" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="E25" s="74" t="s">
+      <c r="F25" s="75" t="s">
         <v>222</v>
-      </c>
-      <c r="F25" s="75" t="s">
-        <v>223</v>
       </c>
       <c r="G25" s="49" t="s">
         <v>105</v>
       </c>
       <c r="H25" s="50"/>
+    </row>
+    <row r="26" spans="1:8" s="84" customFormat="1" ht="78.75">
+      <c r="A26" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="C26" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="D26" s="81" t="s">
+        <v>338</v>
+      </c>
+      <c r="E26" s="81" t="s">
+        <v>340</v>
+      </c>
+      <c r="F26" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="85" t="s">
+        <v>339</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9520,13 +9859,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9576,7 +9915,7 @@
       <c r="B2" s="32"/>
       <c r="C2" s="51"/>
       <c r="D2" s="52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
@@ -9600,51 +9939,57 @@
       <c r="B4" s="32"/>
       <c r="C4" s="51"/>
       <c r="D4" s="56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="H4" s="57"/>
     </row>
-    <row r="5" spans="1:9" s="33" customFormat="1" ht="173.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:9" s="84" customFormat="1" ht="173.25">
+      <c r="A5" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="D5" s="42" t="s">
+      <c r="B5" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="F5" s="44" t="s">
+      <c r="E5" s="86" t="s">
         <v>312</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="F5" s="87" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="50"/>
+      <c r="H5" s="77" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="33" customFormat="1" ht="78.75">
       <c r="A6" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C6" s="48" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="E6" s="43" t="s">
-        <v>309</v>
-      </c>
       <c r="F6" s="44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G6" s="49" t="s">
         <v>105</v>
@@ -9655,15 +10000,17 @@
       <c r="A7" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C7" s="48" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" s="49" t="s">
@@ -9675,15 +10022,17 @@
       <c r="A8" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C8" s="48" t="s">
         <v>101</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" s="49" t="s">
@@ -9695,15 +10044,17 @@
       <c r="A9" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C9" s="48" t="s">
         <v>102</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="49" t="s">
@@ -9711,39 +10062,45 @@
       </c>
       <c r="H9" s="50"/>
     </row>
-    <row r="10" spans="1:9" s="33" customFormat="1" ht="15.75">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:9" s="84" customFormat="1" ht="15.75">
+      <c r="A10" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="48" t="s">
+      <c r="B10" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="49" t="s">
+      <c r="D10" s="80" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="87"/>
+      <c r="G10" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="50"/>
+      <c r="H10" s="77" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="33" customFormat="1" ht="15.75">
       <c r="A11" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C11" s="48" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F11" s="44"/>
       <c r="G11" s="49" t="s">
@@ -9766,7 +10123,7 @@
       <c r="B13" s="32"/>
       <c r="C13" s="51"/>
       <c r="D13" s="52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -9778,7 +10135,7 @@
       <c r="B14" s="32"/>
       <c r="C14" s="51"/>
       <c r="D14" s="54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
@@ -9790,7 +10147,7 @@
       <c r="B15" s="32"/>
       <c r="C15" s="51"/>
       <c r="D15" s="56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="41"/>
@@ -9801,18 +10158,20 @@
       <c r="A16" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C16" s="48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D16" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="E16" s="74" t="s">
-        <v>200</v>
-      </c>
       <c r="F16" s="75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G16" s="49" t="s">
         <v>115</v>
@@ -9823,18 +10182,20 @@
       <c r="A17" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C17" s="48" t="s">
         <v>106</v>
       </c>
       <c r="D17" s="74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E17" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F17" s="75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G17" s="49" t="s">
         <v>105</v>
@@ -9845,18 +10206,20 @@
       <c r="A18" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C18" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D18" s="74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F18" s="75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G18" s="49" t="s">
         <v>105</v>
@@ -9867,18 +10230,20 @@
       <c r="A19" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C19" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D19" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="74" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="F19" s="75" t="s">
         <v>284</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>285</v>
       </c>
       <c r="G19" s="49" t="s">
         <v>105</v>
@@ -9889,18 +10254,20 @@
       <c r="A20" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C20" s="48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="E20" s="74" t="s">
         <v>277</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="F20" s="75" t="s">
         <v>278</v>
-      </c>
-      <c r="F20" s="75" t="s">
-        <v>279</v>
       </c>
       <c r="G20" s="49" t="s">
         <v>105</v>
@@ -9911,18 +10278,20 @@
       <c r="A21" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C21" s="48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D21" s="74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E21" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="75" t="s">
         <v>214</v>
-      </c>
-      <c r="F21" s="75" t="s">
-        <v>215</v>
       </c>
       <c r="G21" s="49" t="s">
         <v>105</v>
@@ -9933,18 +10302,20 @@
       <c r="A22" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C22" s="48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D22" s="74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F22" s="75" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G22" s="49" t="s">
         <v>105</v>
@@ -9955,18 +10326,20 @@
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C23" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D23" s="74" t="s">
+        <v>285</v>
+      </c>
+      <c r="E23" s="74" t="s">
         <v>286</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="F23" s="75" t="s">
         <v>287</v>
-      </c>
-      <c r="F23" s="75" t="s">
-        <v>288</v>
       </c>
       <c r="G23" s="49" t="s">
         <v>105</v>
@@ -9977,18 +10350,20 @@
       <c r="A24" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C24" s="48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D24" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="F24" s="75" t="s">
         <v>281</v>
-      </c>
-      <c r="F24" s="75" t="s">
-        <v>282</v>
       </c>
       <c r="G24" s="49" t="s">
         <v>105</v>
@@ -9999,18 +10374,20 @@
       <c r="A25" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C25" s="48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D25" s="74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E25" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F25" s="75" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G25" s="49" t="s">
         <v>105</v>
@@ -10021,18 +10398,20 @@
       <c r="A26" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="32"/>
+      <c r="B26" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C26" s="48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D26" s="74" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E26" s="74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F26" s="75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G26" s="49" t="s">
         <v>105</v>
@@ -10043,18 +10422,20 @@
       <c r="A27" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="32"/>
+      <c r="B27" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C27" s="48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D27" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="F27" s="75" t="s">
         <v>218</v>
-      </c>
-      <c r="E27" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="F27" s="75" t="s">
-        <v>219</v>
       </c>
       <c r="G27" s="49" t="s">
         <v>115</v>
@@ -10065,23 +10446,49 @@
       <c r="A28" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="32"/>
+      <c r="B28" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="C28" s="48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D28" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="E28" s="74" t="s">
+      <c r="F28" s="75" t="s">
         <v>222</v>
-      </c>
-      <c r="F28" s="75" t="s">
-        <v>223</v>
       </c>
       <c r="G28" s="49" t="s">
         <v>105</v>
       </c>
       <c r="H28" s="50"/>
+    </row>
+    <row r="29" spans="1:8" s="33" customFormat="1" ht="78.75">
+      <c r="A29" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>338</v>
+      </c>
+      <c r="E29" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="F29" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="95"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
